--- a/Docs/02_基本設計/画面一覧.xlsx
+++ b/Docs/02_基本設計/画面一覧.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">画面一覧!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -348,6 +348,19 @@
   <si>
     <t>ローン情報画面</t>
     <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシート情報一覧画面</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -373,93 +386,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,116 +492,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -674,6 +549,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="画面一覧" displayName="画面一覧" ref="B4:F25" totalsRowShown="0">
+  <autoFilter ref="B4:F25"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="画面名"/>
+    <tableColumn id="3" name="関連ユースケース名"/>
+    <tableColumn id="4" name="主な関連機能"/>
+    <tableColumn id="5" name="関連情報"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -965,597 +854,612 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="21.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="4" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="5">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="5">
+      <c r="A6" s="11"/>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="5">
+      <c r="A7" s="11"/>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="5">
+      <c r="A8" s="11"/>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="5">
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="5">
-        <v>6</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="5">
-        <v>7</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="5">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="5">
-        <v>9</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="5">
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="5">
-        <v>11</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="5">
-        <v>12</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="5">
-        <v>13</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="5">
-        <v>14</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="5">
-        <v>15</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="5">
-        <v>16</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="5">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="5">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="5">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="5">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="18"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
+      <c r="A30" s="5"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
+      <c r="A31" s="5"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
-      <c r="B34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
-      <c r="B38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
-      <c r="B39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
-      <c r="B40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1564,5 +1468,8 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>